--- a/First Prototype/Initial BOM.xlsx
+++ b/First Prototype/Initial BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nfern\OneDrive\Desktop\Vetcon\DC32\Geiger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDC1555-52A0-4783-999A-84DD24524BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F136548-6307-4531-9B5B-4D8EE6E0852E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3270" yWindow="1860" windowWidth="21600" windowHeight="12585" xr2:uid="{02D293EB-0373-4ED6-BB73-425E77A545E2}"/>
   </bookViews>
@@ -515,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -530,11 +530,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -852,7 +851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42934F49-21A7-4587-A71F-A8F3F3D53C29}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -916,7 +915,7 @@
         <v>0.29000000000000004</v>
       </c>
       <c r="G2" s="7">
-        <f>C2*(E2*1.1)</f>
+        <f t="shared" ref="G2:G23" si="0">C2*(E2*1.1)</f>
         <v>31.900000000000002</v>
       </c>
       <c r="H2" s="6" t="s">
@@ -940,15 +939,15 @@
         <v>1</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E24" si="0">D3*100</f>
+        <f t="shared" ref="E3:E24" si="1">D3*100</f>
         <v>100</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F24" si="1">C3*D3</f>
+        <f t="shared" ref="F3:F24" si="2">C3*D3</f>
         <v>0.23</v>
       </c>
       <c r="G3" s="3">
-        <f>C3*(E3*1.1)</f>
+        <f t="shared" si="0"/>
         <v>25.300000000000004</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -972,15 +971,15 @@
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.123</v>
       </c>
       <c r="G4" s="3">
-        <f>C4*(E4*1.1)</f>
+        <f t="shared" si="0"/>
         <v>13.530000000000001</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -1004,15 +1003,15 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.127</v>
       </c>
       <c r="G5" s="3">
-        <f>C5*(E5*1.1)</f>
+        <f t="shared" si="0"/>
         <v>13.970000000000002</v>
       </c>
       <c r="H5" s="2"/>
@@ -1034,15 +1033,15 @@
         <v>1</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.19800000000000001</v>
       </c>
       <c r="G6" s="3">
-        <f>C6*(E6*1.1)</f>
+        <f t="shared" si="0"/>
         <v>21.780000000000005</v>
       </c>
       <c r="H6" s="2"/>
@@ -1064,15 +1063,15 @@
         <v>2</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.52</v>
       </c>
       <c r="G7" s="3">
-        <f>C7*(E7*1.1)</f>
+        <f t="shared" si="0"/>
         <v>57.20000000000001</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -1096,15 +1095,15 @@
         <v>1</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G8" s="3">
-        <f>C8*(E8*1.1)</f>
+        <f t="shared" si="0"/>
         <v>4.95</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -1128,15 +1127,15 @@
         <v>1</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.224</v>
       </c>
       <c r="G9" s="3">
-        <f>C9*(E9*1.1)</f>
+        <f t="shared" si="0"/>
         <v>24.640000000000004</v>
       </c>
       <c r="H9" s="2"/>
@@ -1158,15 +1157,15 @@
         <v>1</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.24</v>
       </c>
       <c r="G10" s="3">
-        <f>C10*(E10*1.1)</f>
+        <f t="shared" si="0"/>
         <v>26.400000000000002</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -1193,15 +1192,15 @@
         <v>1</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.13700000000000001</v>
       </c>
       <c r="G11" s="3">
-        <f>C11*(E11*1.1)</f>
+        <f t="shared" si="0"/>
         <v>15.070000000000004</v>
       </c>
       <c r="H11" s="2"/>
@@ -1223,15 +1222,15 @@
         <v>1</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.22800000000000001</v>
       </c>
       <c r="G12" s="3">
-        <f>C12*(E12*1.1)</f>
+        <f t="shared" si="0"/>
         <v>25.080000000000005</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -1255,15 +1254,15 @@
         <v>1</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2E-2</v>
       </c>
       <c r="G13" s="3">
-        <f>C13*(E13*1.1)</f>
+        <f t="shared" si="0"/>
         <v>1.3200000000000003</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -1287,15 +1286,15 @@
         <v>1</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="G14" s="3">
-        <f>C14*(E14*1.1)</f>
+        <f t="shared" si="0"/>
         <v>3.850000000000001</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -1319,15 +1318,15 @@
         <v>1</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G15" s="3">
-        <f>C15*(E15*1.1)</f>
+        <f t="shared" si="0"/>
         <v>6.2700000000000014</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -1351,15 +1350,15 @@
         <v>2</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.19</v>
       </c>
       <c r="G16" s="3">
-        <f>C16*(E16*1.1)</f>
+        <f t="shared" si="0"/>
         <v>20.900000000000002</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -1383,15 +1382,15 @@
         <v>2</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="G17" s="3">
-        <f>C17*(E17*1.1)</f>
+        <f t="shared" si="0"/>
         <v>9.0200000000000014</v>
       </c>
       <c r="H17" s="2" t="s">
@@ -1415,15 +1414,15 @@
         <v>3</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.22199999999999998</v>
       </c>
       <c r="G18" s="3">
-        <f>C18*(E18*1.1)</f>
+        <f t="shared" si="0"/>
         <v>24.419999999999998</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -1447,15 +1446,15 @@
         <v>1</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="G19" s="3">
-        <f>C19*(E19*1.1)</f>
+        <f t="shared" si="0"/>
         <v>8.0300000000000011</v>
       </c>
       <c r="H19" s="2" t="s">
@@ -1479,15 +1478,15 @@
         <v>1</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="G20" s="3">
-        <f>C20*(E20*1.1)</f>
+        <f t="shared" si="0"/>
         <v>8.25</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -1511,15 +1510,15 @@
         <v>2</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.226</v>
       </c>
       <c r="G21" s="3">
-        <f>C21*(E21*1.1)</f>
+        <f t="shared" si="0"/>
         <v>134.86000000000001</v>
       </c>
       <c r="H21" s="5" t="s">
@@ -1541,15 +1540,15 @@
         <v>2</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.20399999999999999</v>
       </c>
       <c r="G22" s="3">
-        <f>C22*(E22*1.1)</f>
+        <f t="shared" si="0"/>
         <v>22.44</v>
       </c>
       <c r="H22" s="2" t="s">
@@ -1573,15 +1572,15 @@
         <v>1</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.5</v>
       </c>
       <c r="G23" s="3">
-        <f>C23*(E23*1.1)</f>
+        <f t="shared" si="0"/>
         <v>2145.0000000000005</v>
       </c>
       <c r="H23" s="2" t="s">
@@ -1605,11 +1604,11 @@
         <v>1</v>
       </c>
       <c r="E24" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="F24" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.9</v>
       </c>
       <c r="G24" s="14">
@@ -1629,9 +1628,9 @@
         <f>SUM(F2:F24)</f>
         <v>32.938000000000002</v>
       </c>
-      <c r="G25" s="17">
-        <f>SUM(G2:G23)</f>
-        <v>2644.1800000000003</v>
+      <c r="G25" s="16">
+        <f>SUM(G2:G24)</f>
+        <v>3534.1800000000003</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
